--- a/metadata/Metadata_eDNA_Megafauna_EB_leng_V2.xlsx
+++ b/metadata/Metadata_eDNA_Megafauna_EB_leng_V2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LaCie/These/Projects/Global_eDNA/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathon\Desktop\linux\Global_eDNA\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C255EEE-F8FB-7E4D-BDEE-74135FADA37C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="48080" windowHeight="24520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="48075" windowHeight="24525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -7692,7 +7691,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -8300,7 +8299,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8683,46 +8682,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D49ACA5-211A-3B4E-96CD-D8C676940583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="1" max="1" width="16.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="5"/>
     <col min="10" max="10" width="15" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="5" customWidth="1"/>
-    <col min="12" max="14" width="10.83203125" style="5"/>
-    <col min="15" max="15" width="11.5" style="3"/>
-    <col min="16" max="17" width="10.83203125" style="5"/>
-    <col min="18" max="19" width="10.83203125" style="109"/>
-    <col min="20" max="20" width="14.1640625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" style="4" customWidth="1"/>
-    <col min="23" max="32" width="15.1640625" style="5" customWidth="1"/>
-    <col min="33" max="33" width="11.5" style="4"/>
-    <col min="34" max="34" width="12.83203125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" style="5"/>
-    <col min="36" max="36" width="12.33203125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="14.1640625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="11.5" style="5"/>
-    <col min="39" max="39" width="18.1640625" style="5" customWidth="1"/>
-    <col min="40" max="40" width="10.83203125" style="5"/>
-    <col min="41" max="41" width="49.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="5" customWidth="1"/>
+    <col min="12" max="14" width="10.85546875" style="5"/>
+    <col min="15" max="15" width="11.42578125" style="3"/>
+    <col min="16" max="17" width="10.85546875" style="5"/>
+    <col min="18" max="19" width="10.85546875" style="109"/>
+    <col min="20" max="20" width="14.140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="4" customWidth="1"/>
+    <col min="23" max="32" width="15.140625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="4"/>
+    <col min="34" max="34" width="12.85546875" style="4" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="5"/>
+    <col min="36" max="36" width="12.28515625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="5"/>
+    <col min="39" max="39" width="18.140625" style="5" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" style="5"/>
+    <col min="41" max="41" width="49.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -9465,7 +9464,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
@@ -9566,7 +9565,7 @@
       </c>
       <c r="AO8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
@@ -9667,7 +9666,7 @@
       </c>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -9768,7 +9767,7 @@
       </c>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>88</v>
       </c>
@@ -9869,7 +9868,7 @@
       </c>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
@@ -9970,7 +9969,7 @@
       </c>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>96</v>
       </c>
@@ -10071,7 +10070,7 @@
       </c>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
@@ -10172,7 +10171,7 @@
       </c>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>106</v>
       </c>
@@ -10376,7 +10375,7 @@
       </c>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>113</v>
       </c>
@@ -10477,7 +10476,7 @@
       </c>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>114</v>
       </c>
@@ -10578,7 +10577,7 @@
       </c>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>121</v>
       </c>
@@ -10679,7 +10678,7 @@
       </c>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>122</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>130</v>
       </c>
@@ -10883,7 +10882,7 @@
       </c>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>131</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>139</v>
       </c>
@@ -11055,7 +11054,7 @@
       </c>
       <c r="AO23" s="18"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>147</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>154</v>
       </c>
@@ -11235,7 +11234,7 @@
       </c>
       <c r="AO25" s="18"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>160</v>
       </c>
@@ -11324,7 +11323,7 @@
       </c>
       <c r="AO26" s="18"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>162</v>
       </c>
@@ -11413,7 +11412,7 @@
       </c>
       <c r="AO27" s="18"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
@@ -11502,7 +11501,7 @@
       </c>
       <c r="AO28" s="18"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>170</v>
       </c>
@@ -11591,7 +11590,7 @@
       </c>
       <c r="AO29" s="18"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>174</v>
       </c>
@@ -11702,7 +11701,7 @@
       </c>
       <c r="AO30" s="18"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>192</v>
       </c>
@@ -11813,7 +11812,7 @@
       </c>
       <c r="AO31" s="18"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>193</v>
       </c>
@@ -11898,7 +11897,7 @@
       </c>
       <c r="AO32" s="18"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>199</v>
       </c>
@@ -12009,7 +12008,7 @@
       </c>
       <c r="AO33" s="18"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>214</v>
       </c>
@@ -12120,7 +12119,7 @@
       </c>
       <c r="AO34" s="18"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>230</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>232</v>
       </c>
@@ -12344,7 +12343,7 @@
       </c>
       <c r="AO36" s="18"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>247</v>
       </c>
@@ -12457,7 +12456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>264</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>265</v>
       </c>
@@ -12681,7 +12680,7 @@
       </c>
       <c r="AO39" s="18"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>266</v>
       </c>
@@ -12792,7 +12791,7 @@
       </c>
       <c r="AO40" s="18"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>281</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>289</v>
       </c>
@@ -12994,7 +12993,7 @@
       </c>
       <c r="AO42" s="18"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>290</v>
       </c>
@@ -13107,7 +13106,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>292</v>
       </c>
@@ -13206,7 +13205,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>304</v>
       </c>
@@ -13303,7 +13302,7 @@
       </c>
       <c r="AO45" s="39"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>305</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>315</v>
       </c>
@@ -13499,7 +13498,7 @@
       </c>
       <c r="AO47" s="39"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>316</v>
       </c>
@@ -13596,7 +13595,7 @@
       </c>
       <c r="AO48" s="39"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>325</v>
       </c>
@@ -13693,7 +13692,7 @@
       </c>
       <c r="AO49" s="39"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>326</v>
       </c>
@@ -13808,7 +13807,7 @@
       </c>
       <c r="AO50" s="39"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>343</v>
       </c>
@@ -13923,7 +13922,7 @@
       </c>
       <c r="AO51" s="39"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>344</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>359</v>
       </c>
@@ -14155,7 +14154,7 @@
       </c>
       <c r="AO53" s="39"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>360</v>
       </c>
@@ -14254,7 +14253,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>370</v>
       </c>
@@ -14351,7 +14350,7 @@
       </c>
       <c r="AO55" s="39"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>376</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>386</v>
       </c>
@@ -14547,7 +14546,7 @@
       </c>
       <c r="AO57" s="39"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="140" t="s">
         <v>2420</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="141" t="s">
         <v>403</v>
       </c>
@@ -14785,7 +14784,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="140" t="s">
         <v>2421</v>
       </c>
@@ -14902,7 +14901,7 @@
       </c>
       <c r="AO60" s="43"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="140" t="s">
         <v>2422</v>
       </c>
@@ -15019,7 +15018,7 @@
       </c>
       <c r="AO61" s="43"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="140" t="s">
         <v>2423</v>
       </c>
@@ -15126,7 +15125,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="140" t="s">
         <v>2424</v>
       </c>
@@ -15233,7 +15232,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="140" t="s">
         <v>2425</v>
       </c>
@@ -15352,7 +15351,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="140" t="s">
         <v>2426</v>
       </c>
@@ -15471,7 +15470,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="140" t="s">
         <v>2427</v>
       </c>
@@ -15590,7 +15589,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="140" t="s">
         <v>2428</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="140" t="s">
         <v>2429</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="140" t="s">
         <v>2430</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="140" t="s">
         <v>2431</v>
       </c>
@@ -16054,7 +16053,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="140" t="s">
         <v>2432</v>
       </c>
@@ -16173,7 +16172,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="140" t="s">
         <v>2433</v>
       </c>
@@ -16292,7 +16291,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="140" t="s">
         <v>2434</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="140" t="s">
         <v>2435</v>
       </c>
@@ -16530,7 +16529,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="140" t="s">
         <v>2436</v>
       </c>
@@ -16649,7 +16648,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="140" t="s">
         <v>2437</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="140" t="s">
         <v>2438</v>
       </c>
@@ -16887,7 +16886,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="140" t="s">
         <v>2439</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="140" t="s">
         <v>2440</v>
       </c>
@@ -17101,7 +17100,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="140" t="s">
         <v>2441</v>
       </c>
@@ -17220,7 +17219,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="140" t="s">
         <v>2442</v>
       </c>
@@ -17339,7 +17338,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="140" t="s">
         <v>2443</v>
       </c>
@@ -17456,7 +17455,7 @@
       </c>
       <c r="AO82" s="57"/>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="140" t="s">
         <v>2444</v>
       </c>
@@ -17573,7 +17572,7 @@
       </c>
       <c r="AO83" s="57"/>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="140" t="s">
         <v>2445</v>
       </c>
@@ -17692,7 +17691,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="140" t="s">
         <v>2446</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="140" t="s">
         <v>2447</v>
       </c>
@@ -17930,7 +17929,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="140" t="s">
         <v>2448</v>
       </c>
@@ -18049,7 +18048,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="140" t="s">
         <v>2449</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="140" t="s">
         <v>2450</v>
       </c>
@@ -18287,7 +18286,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="140" t="s">
         <v>2451</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="140" t="s">
         <v>2452</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>637</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>647</v>
       </c>
@@ -18709,7 +18708,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>648</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>656</v>
       </c>
@@ -18917,7 +18916,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>664</v>
       </c>
@@ -19021,7 +19020,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>673</v>
       </c>
@@ -19119,7 +19118,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>679</v>
       </c>
@@ -19223,7 +19222,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>687</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>696</v>
       </c>
@@ -19431,7 +19430,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>703</v>
       </c>
@@ -19529,7 +19528,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>710</v>
       </c>
@@ -19627,7 +19626,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>716</v>
       </c>
@@ -19716,7 +19715,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>722</v>
       </c>
@@ -19805,7 +19804,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>723</v>
       </c>
@@ -19894,7 +19893,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>726</v>
       </c>
@@ -19983,7 +19982,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>727</v>
       </c>
@@ -20072,7 +20071,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>732</v>
       </c>
@@ -20161,7 +20160,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>734</v>
       </c>
@@ -20250,7 +20249,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>736</v>
       </c>
@@ -20339,7 +20338,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>741</v>
       </c>
@@ -20428,7 +20427,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>743</v>
       </c>
@@ -20517,7 +20516,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>745</v>
       </c>
@@ -20606,7 +20605,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>747</v>
       </c>
@@ -20695,7 +20694,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>750</v>
       </c>
@@ -20784,7 +20783,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>752</v>
       </c>
@@ -20873,7 +20872,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>755</v>
       </c>
@@ -20962,7 +20961,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>757</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>759</v>
       </c>
@@ -21140,7 +21139,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>761</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>763</v>
       </c>
@@ -21318,7 +21317,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>765</v>
       </c>
@@ -21421,7 +21420,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>776</v>
       </c>
@@ -21524,7 +21523,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>777</v>
       </c>
@@ -21627,7 +21626,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>787</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>788</v>
       </c>
@@ -21833,7 +21832,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="70" t="s">
         <v>798</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="70" t="s">
         <v>799</v>
       </c>
@@ -22035,7 +22034,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="70" t="s">
         <v>809</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="70" t="s">
         <v>810</v>
       </c>
@@ -22233,7 +22232,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="70" t="s">
         <v>818</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="70" t="s">
         <v>819</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="70" t="s">
         <v>827</v>
       </c>
@@ -22530,7 +22529,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="70" t="s">
         <v>828</v>
       </c>
@@ -22623,7 +22622,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="70" t="s">
         <v>835</v>
       </c>
@@ -22716,7 +22715,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="70" t="s">
         <v>839</v>
       </c>
@@ -22809,7 +22808,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="70" t="s">
         <v>843</v>
       </c>
@@ -22902,7 +22901,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="70" t="s">
         <v>850</v>
       </c>
@@ -22995,7 +22994,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="70" t="s">
         <v>854</v>
       </c>
@@ -23088,7 +23087,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="70" t="s">
         <v>858</v>
       </c>
@@ -23187,7 +23186,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="70" t="s">
         <v>865</v>
       </c>
@@ -23286,7 +23285,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="70" t="s">
         <v>866</v>
       </c>
@@ -23385,7 +23384,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="70" t="s">
         <v>870</v>
       </c>
@@ -23484,7 +23483,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
         <v>871</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A145" s="70" t="s">
         <v>876</v>
       </c>
@@ -23682,7 +23681,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" s="70" t="s">
         <v>877</v>
       </c>
@@ -23781,7 +23780,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A147" s="70" t="s">
         <v>885</v>
       </c>
@@ -23880,7 +23879,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" s="70" t="s">
         <v>886</v>
       </c>
@@ -23983,7 +23982,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A149" s="70" t="s">
         <v>897</v>
       </c>
@@ -24086,7 +24085,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" s="70" t="s">
         <v>898</v>
       </c>
@@ -24189,7 +24188,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A151" s="70" t="s">
         <v>909</v>
       </c>
@@ -24292,7 +24291,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" s="70" t="s">
         <v>910</v>
       </c>
@@ -24395,7 +24394,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A153" s="70" t="s">
         <v>920</v>
       </c>
@@ -24498,7 +24497,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A154" s="70" t="s">
         <v>921</v>
       </c>
@@ -24597,7 +24596,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" s="70" t="s">
         <v>929</v>
       </c>
@@ -24696,7 +24695,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" s="70" t="s">
         <v>930</v>
       </c>
@@ -24799,7 +24798,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" s="70" t="s">
         <v>940</v>
       </c>
@@ -24902,7 +24901,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A158" s="70" t="s">
         <v>941</v>
       </c>
@@ -25001,7 +25000,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" s="70" t="s">
         <v>949</v>
       </c>
@@ -25100,7 +25099,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
         <v>950</v>
       </c>
@@ -25203,7 +25202,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>961</v>
       </c>
@@ -25306,7 +25305,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
         <v>962</v>
       </c>
@@ -25409,7 +25408,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>972</v>
       </c>
@@ -25512,7 +25511,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>973</v>
       </c>
@@ -25615,7 +25614,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
         <v>983</v>
       </c>
@@ -25718,7 +25717,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
         <v>984</v>
       </c>
@@ -25821,7 +25820,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
         <v>994</v>
       </c>
@@ -25924,7 +25923,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>995</v>
       </c>
@@ -26027,7 +26026,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>1005</v>
       </c>
@@ -26130,7 +26129,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
         <v>1006</v>
       </c>
@@ -26215,7 +26214,7 @@
       </c>
       <c r="AO170" s="80"/>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>1011</v>
       </c>
@@ -26298,7 +26297,7 @@
       </c>
       <c r="AO171" s="80"/>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>1014</v>
       </c>
@@ -26381,7 +26380,7 @@
       </c>
       <c r="AO172" s="80"/>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>1017</v>
       </c>
@@ -26464,7 +26463,7 @@
       </c>
       <c r="AO173" s="80"/>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
         <v>1020</v>
       </c>
@@ -26547,7 +26546,7 @@
       </c>
       <c r="AO174" s="80"/>
     </row>
-    <row r="175" spans="1:41" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
         <v>1023</v>
       </c>
@@ -26634,7 +26633,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
         <v>1027</v>
       </c>
@@ -26717,7 +26716,7 @@
       </c>
       <c r="AO176" s="80"/>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
         <v>1032</v>
       </c>
@@ -26800,7 +26799,7 @@
       </c>
       <c r="AO177" s="80"/>
     </row>
-    <row r="178" spans="1:41" ht="32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
         <v>1035</v>
       </c>
@@ -26885,7 +26884,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A179" s="40" t="s">
         <v>1039</v>
       </c>
@@ -26988,7 +26987,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
         <v>1049</v>
       </c>
@@ -27091,7 +27090,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A181" s="52" t="s">
         <v>1050</v>
       </c>
@@ -27176,7 +27175,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A182" s="52" t="s">
         <v>1056</v>
       </c>
@@ -27261,7 +27260,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A183" s="52" t="s">
         <v>1059</v>
       </c>
@@ -27346,7 +27345,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A184" s="52" t="s">
         <v>1065</v>
       </c>
@@ -27431,7 +27430,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A185" s="52" t="s">
         <v>1068</v>
       </c>
@@ -27516,7 +27515,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A186" s="52" t="s">
         <v>1072</v>
       </c>
@@ -27613,7 +27612,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A187" s="52" t="s">
         <v>1080</v>
       </c>
@@ -27710,7 +27709,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A188" s="52" t="s">
         <v>1081</v>
       </c>
@@ -27813,7 +27812,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A189" s="52" t="s">
         <v>1090</v>
       </c>
@@ -27916,7 +27915,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A190" s="52" t="s">
         <v>1091</v>
       </c>
@@ -28013,7 +28012,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A191" s="52" t="s">
         <v>1098</v>
       </c>
@@ -28110,7 +28109,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A192" s="52" t="s">
         <v>1099</v>
       </c>
@@ -28213,7 +28212,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A193" s="52" t="s">
         <v>1108</v>
       </c>
@@ -28316,7 +28315,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A194" s="52" t="s">
         <v>1109</v>
       </c>
@@ -28399,7 +28398,7 @@
       </c>
       <c r="AO194" s="57"/>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A195" s="52" t="s">
         <v>1114</v>
       </c>
@@ -28482,7 +28481,7 @@
       </c>
       <c r="AO195" s="57"/>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A196" s="52" t="s">
         <v>1117</v>
       </c>
@@ -28565,7 +28564,7 @@
       </c>
       <c r="AO196" s="57"/>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A197" s="52" t="s">
         <v>1120</v>
       </c>
@@ -28648,7 +28647,7 @@
       </c>
       <c r="AO197" s="57"/>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A198" s="52" t="s">
         <v>1123</v>
       </c>
@@ -28731,7 +28730,7 @@
       </c>
       <c r="AO198" s="57"/>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A199" s="52" t="s">
         <v>1126</v>
       </c>
@@ -28814,7 +28813,7 @@
       </c>
       <c r="AO199" s="57"/>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A200" s="52" t="s">
         <v>1129</v>
       </c>
@@ -28915,7 +28914,7 @@
       </c>
       <c r="AO200" s="57"/>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A201" s="52" t="s">
         <v>1138</v>
       </c>
@@ -29016,7 +29015,7 @@
       </c>
       <c r="AO201" s="57"/>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A202" s="52" t="s">
         <v>1139</v>
       </c>
@@ -29101,7 +29100,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A203" s="52" t="s">
         <v>1144</v>
       </c>
@@ -29184,7 +29183,7 @@
       </c>
       <c r="AO203" s="44"/>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A204" s="145" t="s">
         <v>1146</v>
       </c>
@@ -29281,7 +29280,7 @@
       </c>
       <c r="AO204" s="85"/>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A205" s="145" t="s">
         <v>1156</v>
       </c>
@@ -29378,7 +29377,7 @@
       </c>
       <c r="AO205" s="85"/>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A206" s="145" t="s">
         <v>1157</v>
       </c>
@@ -29481,7 +29480,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A207" s="145" t="s">
         <v>1167</v>
       </c>
@@ -29584,7 +29583,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A208" s="145" t="s">
         <v>1168</v>
       </c>
@@ -29685,7 +29684,7 @@
       </c>
       <c r="AO208" s="85"/>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A209" s="145" t="s">
         <v>1177</v>
       </c>
@@ -29786,7 +29785,7 @@
       </c>
       <c r="AO209" s="85"/>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A210" s="145" t="s">
         <v>1178</v>
       </c>
@@ -29887,7 +29886,7 @@
       </c>
       <c r="AO210" s="85"/>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A211" s="145" t="s">
         <v>1187</v>
       </c>
@@ -29988,7 +29987,7 @@
       </c>
       <c r="AO211" s="85"/>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A212" s="145" t="s">
         <v>1188</v>
       </c>
@@ -30091,7 +30090,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A213" s="145" t="s">
         <v>1198</v>
       </c>
@@ -30192,7 +30191,7 @@
       </c>
       <c r="AO213" s="85"/>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A214" s="145" t="s">
         <v>1199</v>
       </c>
@@ -30277,7 +30276,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A215" s="145" t="s">
         <v>1205</v>
       </c>
@@ -30360,7 +30359,7 @@
       </c>
       <c r="AO215" s="85"/>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A216" s="145" t="s">
         <v>1208</v>
       </c>
@@ -30443,7 +30442,7 @@
       </c>
       <c r="AO216" s="85"/>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A217" s="145" t="s">
         <v>1211</v>
       </c>
@@ -30526,7 +30525,7 @@
       </c>
       <c r="AO217" s="85"/>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A218" s="145" t="s">
         <v>1214</v>
       </c>
@@ -30609,7 +30608,7 @@
       </c>
       <c r="AO218" s="85"/>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A219" s="145" t="s">
         <v>1217</v>
       </c>
@@ -30692,7 +30691,7 @@
       </c>
       <c r="AO219" s="85"/>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A220" s="145" t="s">
         <v>1220</v>
       </c>
@@ -30775,7 +30774,7 @@
       </c>
       <c r="AO220" s="85"/>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A221" s="145" t="s">
         <v>1225</v>
       </c>
@@ -30858,7 +30857,7 @@
       </c>
       <c r="AO221" s="85"/>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A222" s="145" t="s">
         <v>1228</v>
       </c>
@@ -30941,7 +30940,7 @@
       </c>
       <c r="AO222" s="85"/>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A223" s="145" t="s">
         <v>1231</v>
       </c>
@@ -31024,7 +31023,7 @@
       </c>
       <c r="AO223" s="85"/>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A224" s="145" t="s">
         <v>1234</v>
       </c>
@@ -31107,7 +31106,7 @@
       </c>
       <c r="AO224" s="85"/>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A225" s="145" t="s">
         <v>1237</v>
       </c>
@@ -31190,7 +31189,7 @@
       </c>
       <c r="AO225" s="85"/>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A226" s="145" t="s">
         <v>1240</v>
       </c>
@@ -31291,7 +31290,7 @@
       </c>
       <c r="AO226" s="85"/>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A227" s="145" t="s">
         <v>1249</v>
       </c>
@@ -31394,7 +31393,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A228" s="145" t="s">
         <v>1251</v>
       </c>
@@ -31491,7 +31490,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A229" s="145" t="s">
         <v>1259</v>
       </c>
@@ -31588,7 +31587,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A230" s="145" t="s">
         <v>1260</v>
       </c>
@@ -31691,7 +31690,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A231" s="145" t="s">
         <v>1269</v>
       </c>
@@ -31794,7 +31793,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A232" s="145" t="s">
         <v>1270</v>
       </c>
@@ -31883,7 +31882,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A233" s="145" t="s">
         <v>1276</v>
       </c>
@@ -31970,7 +31969,7 @@
       </c>
       <c r="AO233" s="85"/>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A234" s="145" t="s">
         <v>1279</v>
       </c>
@@ -32057,7 +32056,7 @@
       </c>
       <c r="AO234" s="85"/>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A235" s="146" t="s">
         <v>1282</v>
       </c>
@@ -32143,7 +32142,7 @@
       </c>
       <c r="AN235" s="96"/>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A236" s="146" t="s">
         <v>1290</v>
       </c>
@@ -32229,7 +32228,7 @@
       </c>
       <c r="AN236" s="96"/>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A237" s="146" t="s">
         <v>1291</v>
       </c>
@@ -32315,7 +32314,7 @@
       </c>
       <c r="AN237" s="96"/>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A238" s="146" t="s">
         <v>1297</v>
       </c>
@@ -32401,7 +32400,7 @@
       </c>
       <c r="AN238" s="96"/>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A239" s="146" t="s">
         <v>1298</v>
       </c>
@@ -32487,7 +32486,7 @@
       </c>
       <c r="AN239" s="96"/>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A240" s="146" t="s">
         <v>1303</v>
       </c>
@@ -32573,7 +32572,7 @@
       </c>
       <c r="AN240" s="96"/>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A241" s="146" t="s">
         <v>1304</v>
       </c>
@@ -32659,7 +32658,7 @@
       </c>
       <c r="AN241" s="96"/>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A242" s="146" t="s">
         <v>1310</v>
       </c>
@@ -32745,7 +32744,7 @@
       </c>
       <c r="AN242" s="96"/>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A243" s="146" t="s">
         <v>1311</v>
       </c>
@@ -32831,7 +32830,7 @@
       </c>
       <c r="AN243" s="96"/>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A244" s="146" t="s">
         <v>1316</v>
       </c>
@@ -32917,7 +32916,7 @@
       </c>
       <c r="AN244" s="96"/>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A245" s="146" t="s">
         <v>1317</v>
       </c>
@@ -33003,7 +33002,7 @@
       </c>
       <c r="AN245" s="96"/>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A246" s="146" t="s">
         <v>1323</v>
       </c>
@@ -33089,7 +33088,7 @@
       </c>
       <c r="AN246" s="96"/>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A247" s="146" t="s">
         <v>1324</v>
       </c>
@@ -33175,7 +33174,7 @@
       </c>
       <c r="AN247" s="96"/>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A248" s="146" t="s">
         <v>1330</v>
       </c>
@@ -33261,7 +33260,7 @@
       </c>
       <c r="AN248" s="96"/>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A249" s="146" t="s">
         <v>1331</v>
       </c>
@@ -33347,7 +33346,7 @@
       </c>
       <c r="AN249" s="96"/>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A250" s="146" t="s">
         <v>1337</v>
       </c>
@@ -33433,7 +33432,7 @@
       </c>
       <c r="AN250" s="96"/>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A251" s="146" t="s">
         <v>1338</v>
       </c>
@@ -33519,7 +33518,7 @@
       </c>
       <c r="AN251" s="96"/>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A252" s="146" t="s">
         <v>1343</v>
       </c>
@@ -33605,7 +33604,7 @@
       </c>
       <c r="AN252" s="96"/>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A253" s="146" t="s">
         <v>1344</v>
       </c>
@@ -33691,7 +33690,7 @@
       </c>
       <c r="AN253" s="96"/>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A254" s="146" t="s">
         <v>1350</v>
       </c>
@@ -33777,7 +33776,7 @@
       </c>
       <c r="AN254" s="96"/>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A255" s="146" t="s">
         <v>1351</v>
       </c>
@@ -33863,7 +33862,7 @@
       </c>
       <c r="AN255" s="96"/>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A256" s="146" t="s">
         <v>1357</v>
       </c>
@@ -33949,7 +33948,7 @@
       </c>
       <c r="AN256" s="96"/>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A257" s="146" t="s">
         <v>1358</v>
       </c>
@@ -34035,7 +34034,7 @@
       </c>
       <c r="AN257" s="96"/>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A258" s="146" t="s">
         <v>1363</v>
       </c>
@@ -34121,7 +34120,7 @@
       </c>
       <c r="AN258" s="96"/>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A259" s="146" t="s">
         <v>1364</v>
       </c>
@@ -34207,7 +34206,7 @@
       </c>
       <c r="AN259" s="96"/>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A260" s="146" t="s">
         <v>1370</v>
       </c>
@@ -34293,7 +34292,7 @@
       </c>
       <c r="AN260" s="96"/>
     </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A261" s="146" t="s">
         <v>1371</v>
       </c>
@@ -34379,7 +34378,7 @@
       </c>
       <c r="AN261" s="96"/>
     </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A262" s="146" t="s">
         <v>1376</v>
       </c>
@@ -34465,7 +34464,7 @@
       </c>
       <c r="AN262" s="96"/>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A263" s="146" t="s">
         <v>1378</v>
       </c>
@@ -34551,7 +34550,7 @@
       </c>
       <c r="AN263" s="96"/>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A264" s="146" t="s">
         <v>1384</v>
       </c>
@@ -34637,7 +34636,7 @@
       </c>
       <c r="AN264" s="96"/>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A265" s="104" t="s">
         <v>1385</v>
       </c>
@@ -34748,7 +34747,7 @@
       </c>
       <c r="AO265" s="104"/>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A266" s="104" t="s">
         <v>1400</v>
       </c>
@@ -34859,7 +34858,7 @@
       </c>
       <c r="AO266" s="104"/>
     </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A267" s="104" t="s">
         <v>1412</v>
       </c>
@@ -34970,7 +34969,7 @@
       </c>
       <c r="AO267" s="104"/>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A268" s="104" t="s">
         <v>1424</v>
       </c>
@@ -35081,7 +35080,7 @@
       </c>
       <c r="AO268" s="104"/>
     </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A269" s="104" t="s">
         <v>1436</v>
       </c>
@@ -35192,7 +35191,7 @@
       </c>
       <c r="AO269" s="104"/>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A270" s="104" t="s">
         <v>1446</v>
       </c>
@@ -35303,7 +35302,7 @@
       </c>
       <c r="AO270" s="104"/>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A271" s="104" t="s">
         <v>1456</v>
       </c>
@@ -35414,7 +35413,7 @@
       </c>
       <c r="AO271" s="104"/>
     </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A272" s="104" t="s">
         <v>1468</v>
       </c>
@@ -35525,7 +35524,7 @@
       </c>
       <c r="AO272" s="104"/>
     </row>
-    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A273" s="104" t="s">
         <v>1477</v>
       </c>
@@ -35636,7 +35635,7 @@
       </c>
       <c r="AO273" s="104"/>
     </row>
-    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A274" s="104" t="s">
         <v>1487</v>
       </c>
@@ -35747,7 +35746,7 @@
       </c>
       <c r="AO274" s="104"/>
     </row>
-    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A275" s="104" t="s">
         <v>1497</v>
       </c>
@@ -35858,7 +35857,7 @@
       </c>
       <c r="AO275" s="104"/>
     </row>
-    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A276" s="104" t="s">
         <v>1507</v>
       </c>
@@ -35965,7 +35964,7 @@
       </c>
       <c r="AO276" s="104"/>
     </row>
-    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A277" s="104" t="s">
         <v>1509</v>
       </c>
@@ -36076,7 +36075,7 @@
       </c>
       <c r="AO277" s="104"/>
     </row>
-    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A278" s="104" t="s">
         <v>1519</v>
       </c>
@@ -36183,7 +36182,7 @@
       </c>
       <c r="AO278" s="104"/>
     </row>
-    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A279" s="104" t="s">
         <v>1521</v>
       </c>
@@ -36294,7 +36293,7 @@
       </c>
       <c r="AO279" s="104"/>
     </row>
-    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A280" s="104" t="s">
         <v>1531</v>
       </c>
@@ -36401,7 +36400,7 @@
       </c>
       <c r="AO280" s="104"/>
     </row>
-    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A281" s="104" t="s">
         <v>1533</v>
       </c>
@@ -36512,7 +36511,7 @@
       </c>
       <c r="AO281" s="104"/>
     </row>
-    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A282" s="104" t="s">
         <v>1543</v>
       </c>
@@ -36619,7 +36618,7 @@
       </c>
       <c r="AO282" s="104"/>
     </row>
-    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A283" s="104" t="s">
         <v>1545</v>
       </c>
@@ -36730,7 +36729,7 @@
       </c>
       <c r="AO283" s="104"/>
     </row>
-    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A284" s="104" t="s">
         <v>1555</v>
       </c>
@@ -36837,7 +36836,7 @@
       </c>
       <c r="AO284" s="104"/>
     </row>
-    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A285" s="104" t="s">
         <v>1557</v>
       </c>
@@ -36948,7 +36947,7 @@
       </c>
       <c r="AO285" s="104"/>
     </row>
-    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A286" s="104" t="s">
         <v>1567</v>
       </c>
@@ -37059,7 +37058,7 @@
       </c>
       <c r="AO286" s="104"/>
     </row>
-    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A287" s="104" t="s">
         <v>1577</v>
       </c>
@@ -37170,7 +37169,7 @@
       </c>
       <c r="AO287" s="104"/>
     </row>
-    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A288" s="104" t="s">
         <v>1588</v>
       </c>
@@ -37277,7 +37276,7 @@
       </c>
       <c r="AO288" s="104"/>
     </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A289" s="104" t="s">
         <v>1590</v>
       </c>
@@ -37388,7 +37387,7 @@
       </c>
       <c r="AO289" s="104"/>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A290" s="104" t="s">
         <v>1600</v>
       </c>
@@ -37495,7 +37494,7 @@
       </c>
       <c r="AO290" s="104"/>
     </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A291" s="104" t="s">
         <v>1602</v>
       </c>
@@ -37606,7 +37605,7 @@
       </c>
       <c r="AO291" s="104"/>
     </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A292" s="104" t="s">
         <v>1612</v>
       </c>
@@ -37713,7 +37712,7 @@
       </c>
       <c r="AO292" s="104"/>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A293" s="104" t="s">
         <v>1614</v>
       </c>
@@ -37824,7 +37823,7 @@
       </c>
       <c r="AO293" s="104"/>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A294" s="104" t="s">
         <v>1624</v>
       </c>
@@ -37931,7 +37930,7 @@
       </c>
       <c r="AO294" s="104"/>
     </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A295" s="104" t="s">
         <v>1626</v>
       </c>
@@ -38042,7 +38041,7 @@
       </c>
       <c r="AO295" s="104"/>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A296" s="104" t="s">
         <v>1636</v>
       </c>
@@ -38149,7 +38148,7 @@
       </c>
       <c r="AO296" s="104"/>
     </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A297" s="104" t="s">
         <v>1638</v>
       </c>
@@ -38256,7 +38255,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A298" s="104" t="s">
         <v>1647</v>
       </c>
@@ -38363,7 +38362,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A299" s="104" t="s">
         <v>1649</v>
       </c>
@@ -38458,7 +38457,7 @@
       </c>
       <c r="AO299" s="104"/>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A300" s="104" t="s">
         <v>1654</v>
       </c>
@@ -38553,7 +38552,7 @@
       </c>
       <c r="AO300" s="104"/>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A301" s="104" t="s">
         <v>1656</v>
       </c>
@@ -38648,7 +38647,7 @@
       </c>
       <c r="AO301" s="104"/>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A302" s="104" t="s">
         <v>1662</v>
       </c>
@@ -38743,7 +38742,7 @@
       </c>
       <c r="AO302" s="104"/>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A303" s="104" t="s">
         <v>1664</v>
       </c>
@@ -38838,7 +38837,7 @@
       </c>
       <c r="AO303" s="104"/>
     </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A304" s="104" t="s">
         <v>1670</v>
       </c>
@@ -38933,7 +38932,7 @@
       </c>
       <c r="AO304" s="104"/>
     </row>
-    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A305" s="104" t="s">
         <v>1672</v>
       </c>
@@ -39028,7 +39027,7 @@
       </c>
       <c r="AO305" s="104"/>
     </row>
-    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A306" s="104" t="s">
         <v>1678</v>
       </c>
@@ -39123,7 +39122,7 @@
       </c>
       <c r="AO306" s="104"/>
     </row>
-    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A307" s="104" t="s">
         <v>1680</v>
       </c>
@@ -39218,7 +39217,7 @@
       </c>
       <c r="AO307" s="104"/>
     </row>
-    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A308" s="104" t="s">
         <v>1686</v>
       </c>
@@ -39313,7 +39312,7 @@
       </c>
       <c r="AO308" s="104"/>
     </row>
-    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A309" s="104" t="s">
         <v>1688</v>
       </c>
@@ -39408,7 +39407,7 @@
       </c>
       <c r="AO309" s="104"/>
     </row>
-    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A310" s="104" t="s">
         <v>1694</v>
       </c>
@@ -39503,7 +39502,7 @@
       </c>
       <c r="AO310" s="104"/>
     </row>
-    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A311" s="104" t="s">
         <v>1696</v>
       </c>
@@ -39598,7 +39597,7 @@
       </c>
       <c r="AO311" s="104"/>
     </row>
-    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A312" s="104" t="s">
         <v>1702</v>
       </c>
@@ -39693,7 +39692,7 @@
       </c>
       <c r="AO312" s="104"/>
     </row>
-    <row r="313" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A313" s="104" t="s">
         <v>1704</v>
       </c>
@@ -39800,7 +39799,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="314" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A314" s="104" t="s">
         <v>1712</v>
       </c>
@@ -39901,7 +39900,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="315" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A315" s="104" t="s">
         <v>1714</v>
       </c>
@@ -40008,7 +40007,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="316" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A316" s="104" t="s">
         <v>1720</v>
       </c>
@@ -40111,7 +40110,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="317" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A317" s="104" t="s">
         <v>1722</v>
       </c>
@@ -40210,7 +40209,7 @@
       </c>
       <c r="AO317" s="104"/>
     </row>
-    <row r="318" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A318" s="104" t="s">
         <v>1728</v>
       </c>
@@ -40305,7 +40304,7 @@
       </c>
       <c r="AO318" s="104"/>
     </row>
-    <row r="319" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A319" s="104" t="s">
         <v>1730</v>
       </c>
@@ -40404,7 +40403,7 @@
       </c>
       <c r="AO319" s="104"/>
     </row>
-    <row r="320" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A320" s="104" t="s">
         <v>1736</v>
       </c>
@@ -40499,7 +40498,7 @@
       </c>
       <c r="AO320" s="104"/>
     </row>
-    <row r="321" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A321" s="104" t="s">
         <v>1738</v>
       </c>
@@ -40598,7 +40597,7 @@
       </c>
       <c r="AO321" s="104"/>
     </row>
-    <row r="322" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A322" s="104" t="s">
         <v>1744</v>
       </c>
@@ -40693,7 +40692,7 @@
       </c>
       <c r="AO322" s="104"/>
     </row>
-    <row r="323" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A323" s="104" t="s">
         <v>1746</v>
       </c>
@@ -40792,7 +40791,7 @@
       </c>
       <c r="AO323" s="104"/>
     </row>
-    <row r="324" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A324" s="104" t="s">
         <v>1752</v>
       </c>
@@ -40887,7 +40886,7 @@
       </c>
       <c r="AO324" s="104"/>
     </row>
-    <row r="325" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A325" s="104" t="s">
         <v>1754</v>
       </c>
@@ -40986,7 +40985,7 @@
       </c>
       <c r="AO325" s="104"/>
     </row>
-    <row r="326" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A326" s="104" t="s">
         <v>1760</v>
       </c>
@@ -41081,7 +41080,7 @@
       </c>
       <c r="AO326" s="104"/>
     </row>
-    <row r="327" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A327" s="104" t="s">
         <v>1762</v>
       </c>
@@ -41180,7 +41179,7 @@
       </c>
       <c r="AO327" s="104"/>
     </row>
-    <row r="328" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A328" s="104" t="s">
         <v>1768</v>
       </c>
@@ -41275,7 +41274,7 @@
       </c>
       <c r="AO328" s="104"/>
     </row>
-    <row r="329" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A329" s="104" t="s">
         <v>1770</v>
       </c>
@@ -41374,7 +41373,7 @@
       </c>
       <c r="AO329" s="104"/>
     </row>
-    <row r="330" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A330" s="104" t="s">
         <v>1776</v>
       </c>
@@ -41469,7 +41468,7 @@
       </c>
       <c r="AO330" s="104"/>
     </row>
-    <row r="331" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A331" s="104" t="s">
         <v>1778</v>
       </c>
@@ -41568,7 +41567,7 @@
       </c>
       <c r="AO331" s="104"/>
     </row>
-    <row r="332" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A332" s="104" t="s">
         <v>1784</v>
       </c>
@@ -41663,7 +41662,7 @@
       </c>
       <c r="AO332" s="104"/>
     </row>
-    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A333" s="104" t="s">
         <v>1786</v>
       </c>
@@ -41762,7 +41761,7 @@
       </c>
       <c r="AO333" s="104"/>
     </row>
-    <row r="334" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A334" s="104" t="s">
         <v>1792</v>
       </c>
@@ -41857,7 +41856,7 @@
       </c>
       <c r="AO334" s="104"/>
     </row>
-    <row r="335" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A335" s="104" t="s">
         <v>1794</v>
       </c>
@@ -41964,7 +41963,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="336" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A336" s="104" t="s">
         <v>1800</v>
       </c>
@@ -42065,7 +42064,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="337" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A337" s="104" t="s">
         <v>1802</v>
       </c>
@@ -42166,7 +42165,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="338" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A338" s="104" t="s">
         <v>1808</v>
       </c>
@@ -42263,7 +42262,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="339" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A339" s="104" t="s">
         <v>1810</v>
       </c>
@@ -42362,7 +42361,7 @@
       </c>
       <c r="AO339" s="104"/>
     </row>
-    <row r="340" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A340" s="104" t="s">
         <v>1816</v>
       </c>
@@ -42457,7 +42456,7 @@
       </c>
       <c r="AO340" s="104"/>
     </row>
-    <row r="341" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A341" s="104" t="s">
         <v>1818</v>
       </c>
@@ -42556,7 +42555,7 @@
       </c>
       <c r="AO341" s="104"/>
     </row>
-    <row r="342" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A342" s="104" t="s">
         <v>1824</v>
       </c>
@@ -42651,7 +42650,7 @@
       </c>
       <c r="AO342" s="104"/>
     </row>
-    <row r="343" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A343" s="104" t="s">
         <v>1826</v>
       </c>
@@ -42758,7 +42757,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="344" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A344" s="104" t="s">
         <v>1834</v>
       </c>
@@ -42859,7 +42858,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="345" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A345" s="104" t="s">
         <v>1836</v>
       </c>
@@ -42958,7 +42957,7 @@
       </c>
       <c r="AO345" s="104"/>
     </row>
-    <row r="346" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A346" s="104" t="s">
         <v>1842</v>
       </c>
@@ -43053,7 +43052,7 @@
       </c>
       <c r="AO346" s="104"/>
     </row>
-    <row r="347" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A347" s="104" t="s">
         <v>1844</v>
       </c>
@@ -43152,7 +43151,7 @@
       </c>
       <c r="AO347" s="104"/>
     </row>
-    <row r="348" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A348" s="104" t="s">
         <v>1850</v>
       </c>
@@ -43247,7 +43246,7 @@
       </c>
       <c r="AO348" s="104"/>
     </row>
-    <row r="349" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A349" s="104" t="s">
         <v>1887</v>
       </c>
@@ -43354,7 +43353,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="350" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A350" s="104" t="s">
         <v>1896</v>
       </c>
@@ -43461,7 +43460,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="351" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A351" s="104" t="s">
         <v>1898</v>
       </c>
@@ -43568,7 +43567,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="352" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A352" s="104" t="s">
         <v>1904</v>
       </c>
@@ -43675,7 +43674,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="353" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A353" s="104" t="s">
         <v>1908</v>
       </c>
@@ -43774,7 +43773,7 @@
       </c>
       <c r="AO353" s="104"/>
     </row>
-    <row r="354" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A354" s="104" t="s">
         <v>1914</v>
       </c>
@@ -43869,7 +43868,7 @@
       </c>
       <c r="AO354" s="104"/>
     </row>
-    <row r="355" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A355" s="104" t="s">
         <v>1916</v>
       </c>
@@ -43968,7 +43967,7 @@
       </c>
       <c r="AO355" s="104"/>
     </row>
-    <row r="356" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A356" s="104" t="s">
         <v>1920</v>
       </c>
@@ -44063,7 +44062,7 @@
       </c>
       <c r="AO356" s="104"/>
     </row>
-    <row r="357" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A357" s="104" t="s">
         <v>1922</v>
       </c>
@@ -44162,7 +44161,7 @@
       </c>
       <c r="AO357" s="104"/>
     </row>
-    <row r="358" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A358" s="104" t="s">
         <v>1928</v>
       </c>
@@ -44257,7 +44256,7 @@
       </c>
       <c r="AO358" s="104"/>
     </row>
-    <row r="359" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A359" s="104" t="s">
         <v>1930</v>
       </c>
@@ -44356,7 +44355,7 @@
       </c>
       <c r="AO359" s="104"/>
     </row>
-    <row r="360" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A360" s="104" t="s">
         <v>1934</v>
       </c>
@@ -44451,7 +44450,7 @@
       </c>
       <c r="AO360" s="104"/>
     </row>
-    <row r="361" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A361" s="110" t="s">
         <v>1936</v>
       </c>
@@ -44534,7 +44533,7 @@
       </c>
       <c r="AO361" s="115"/>
     </row>
-    <row r="362" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A362" s="110" t="s">
         <v>1942</v>
       </c>
@@ -44617,7 +44616,7 @@
       </c>
       <c r="AO362" s="115"/>
     </row>
-    <row r="363" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A363" s="110" t="s">
         <v>1943</v>
       </c>
@@ -44700,7 +44699,7 @@
       </c>
       <c r="AO363" s="115"/>
     </row>
-    <row r="364" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A364" s="110" t="s">
         <v>1946</v>
       </c>
@@ -44783,7 +44782,7 @@
       </c>
       <c r="AO364" s="115"/>
     </row>
-    <row r="365" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A365" s="110" t="s">
         <v>1947</v>
       </c>
@@ -44866,7 +44865,7 @@
       </c>
       <c r="AO365" s="115"/>
     </row>
-    <row r="366" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A366" s="110" t="s">
         <v>1952</v>
       </c>
@@ -44949,7 +44948,7 @@
       </c>
       <c r="AO366" s="115"/>
     </row>
-    <row r="367" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A367" s="110" t="s">
         <v>1953</v>
       </c>
@@ -45032,7 +45031,7 @@
       </c>
       <c r="AO367" s="115"/>
     </row>
-    <row r="368" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A368" s="110" t="s">
         <v>1954</v>
       </c>
@@ -45115,7 +45114,7 @@
       </c>
       <c r="AO368" s="115"/>
     </row>
-    <row r="369" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A369" s="110" t="s">
         <v>1955</v>
       </c>
@@ -45198,7 +45197,7 @@
       </c>
       <c r="AO369" s="115"/>
     </row>
-    <row r="370" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A370" s="110" t="s">
         <v>1957</v>
       </c>
@@ -45281,7 +45280,7 @@
       </c>
       <c r="AO370" s="115"/>
     </row>
-    <row r="371" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A371" s="110" t="s">
         <v>1959</v>
       </c>
@@ -45364,7 +45363,7 @@
       </c>
       <c r="AO371" s="115"/>
     </row>
-    <row r="372" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A372" s="110" t="s">
         <v>1961</v>
       </c>
@@ -45447,7 +45446,7 @@
       </c>
       <c r="AO372" s="115"/>
     </row>
-    <row r="373" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A373" s="110" t="s">
         <v>1963</v>
       </c>
@@ -45530,7 +45529,7 @@
       </c>
       <c r="AO373" s="115"/>
     </row>
-    <row r="374" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A374" s="123" t="s">
         <v>1968</v>
       </c>
@@ -45619,7 +45618,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="375" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A375" s="125" t="s">
         <v>1976</v>
       </c>
@@ -45708,7 +45707,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="376" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A376" s="125" t="s">
         <v>1874</v>
       </c>
@@ -45805,7 +45804,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="377" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A377" s="125" t="s">
         <v>1877</v>
       </c>
@@ -45902,7 +45901,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="378" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A378" s="125" t="s">
         <v>1881</v>
       </c>
@@ -45999,7 +45998,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="379" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A379" s="125" t="s">
         <v>1884</v>
       </c>
@@ -46096,7 +46095,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="380" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A380" s="125" t="s">
         <v>1860</v>
       </c>
@@ -46191,7 +46190,7 @@
       </c>
       <c r="AO380" s="115"/>
     </row>
-    <row r="381" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A381" s="125" t="s">
         <v>1864</v>
       </c>
@@ -46286,7 +46285,7 @@
       </c>
       <c r="AO381" s="115"/>
     </row>
-    <row r="382" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A382" s="125" t="s">
         <v>1868</v>
       </c>
@@ -46381,7 +46380,7 @@
       </c>
       <c r="AO382" s="115"/>
     </row>
-    <row r="383" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A383" s="125" t="s">
         <v>1871</v>
       </c>
@@ -46476,7 +46475,7 @@
       </c>
       <c r="AO383" s="115"/>
     </row>
-    <row r="384" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A384" s="125" t="s">
         <v>1852</v>
       </c>
@@ -46571,7 +46570,7 @@
       </c>
       <c r="AO384" s="115"/>
     </row>
-    <row r="385" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A385" s="125" t="s">
         <v>1855</v>
       </c>
@@ -46666,7 +46665,7 @@
       </c>
       <c r="AO385" s="115"/>
     </row>
-    <row r="386" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A386" s="125" t="s">
         <v>1856</v>
       </c>
@@ -46761,7 +46760,7 @@
       </c>
       <c r="AO386" s="115"/>
     </row>
-    <row r="387" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A387" s="125" t="s">
         <v>1859</v>
       </c>
@@ -46856,7 +46855,7 @@
       </c>
       <c r="AO387" s="115"/>
     </row>
-    <row r="388" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A388" s="125" t="s">
         <v>2003</v>
       </c>
@@ -46945,7 +46944,7 @@
       </c>
       <c r="AO388" s="115"/>
     </row>
-    <row r="389" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A389" s="125" t="s">
         <v>2006</v>
       </c>
@@ -47034,7 +47033,7 @@
       </c>
       <c r="AO389" s="115"/>
     </row>
-    <row r="390" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A390" s="125" t="s">
         <v>2010</v>
       </c>
@@ -47123,7 +47122,7 @@
       </c>
       <c r="AO390" s="115"/>
     </row>
-    <row r="391" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A391" s="125" t="s">
         <v>2014</v>
       </c>
@@ -47212,7 +47211,7 @@
       </c>
       <c r="AO391" s="115"/>
     </row>
-    <row r="392" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A392" s="125" t="s">
         <v>2018</v>
       </c>
@@ -47309,7 +47308,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="393" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A393" s="125" t="s">
         <v>2025</v>
       </c>
@@ -47406,7 +47405,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="394" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A394" s="125" t="s">
         <v>2026</v>
       </c>
@@ -47503,7 +47502,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="395" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A395" s="125" t="s">
         <v>2031</v>
       </c>
@@ -47590,7 +47589,7 @@
       </c>
       <c r="AO395" s="115"/>
     </row>
-    <row r="396" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A396" s="125" t="s">
         <v>2035</v>
       </c>
@@ -47677,7 +47676,7 @@
       </c>
       <c r="AO396" s="115"/>
     </row>
-    <row r="397" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A397" s="125" t="s">
         <v>2036</v>
       </c>
@@ -47764,7 +47763,7 @@
       </c>
       <c r="AO397" s="115"/>
     </row>
-    <row r="398" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A398" s="125" t="s">
         <v>2037</v>
       </c>
@@ -47851,7 +47850,7 @@
       </c>
       <c r="AO398" s="115"/>
     </row>
-    <row r="399" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A399" s="125" t="s">
         <v>2042</v>
       </c>
@@ -47938,7 +47937,7 @@
       </c>
       <c r="AO399" s="115"/>
     </row>
-    <row r="400" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A400" s="125" t="s">
         <v>2043</v>
       </c>
@@ -48025,7 +48024,7 @@
       </c>
       <c r="AO400" s="115"/>
     </row>
-    <row r="401" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A401" s="125" t="s">
         <v>2044</v>
       </c>
@@ -48120,7 +48119,7 @@
       </c>
       <c r="AO401" s="115"/>
     </row>
-    <row r="402" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A402" s="125" t="s">
         <v>2051</v>
       </c>
@@ -48215,7 +48214,7 @@
       </c>
       <c r="AO402" s="115"/>
     </row>
-    <row r="403" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A403" s="125" t="s">
         <v>2052</v>
       </c>
@@ -48310,7 +48309,7 @@
       </c>
       <c r="AO403" s="115"/>
     </row>
-    <row r="404" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A404" s="125" t="s">
         <v>2055</v>
       </c>
@@ -48399,7 +48398,7 @@
       </c>
       <c r="AO404" s="115"/>
     </row>
-    <row r="405" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A405" s="125" t="s">
         <v>2059</v>
       </c>
@@ -48488,7 +48487,7 @@
       </c>
       <c r="AO405" s="115"/>
     </row>
-    <row r="406" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A406" s="125" t="s">
         <v>2063</v>
       </c>
@@ -48577,7 +48576,7 @@
       </c>
       <c r="AO406" s="115"/>
     </row>
-    <row r="407" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A407" s="125" t="s">
         <v>2067</v>
       </c>
@@ -48666,7 +48665,7 @@
       </c>
       <c r="AO407" s="115"/>
     </row>
-    <row r="408" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A408" s="125" t="s">
         <v>2071</v>
       </c>
@@ -48755,7 +48754,7 @@
       </c>
       <c r="AO408" s="115"/>
     </row>
-    <row r="409" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A409" s="125" t="s">
         <v>2075</v>
       </c>
@@ -48842,7 +48841,7 @@
       </c>
       <c r="AO409" s="115"/>
     </row>
-    <row r="410" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A410" s="125" t="s">
         <v>2079</v>
       </c>
@@ -48929,7 +48928,7 @@
       </c>
       <c r="AO410" s="115"/>
     </row>
-    <row r="411" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A411" s="125" t="s">
         <v>2080</v>
       </c>
@@ -49016,7 +49015,7 @@
       </c>
       <c r="AO411" s="115"/>
     </row>
-    <row r="412" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A412" s="125" t="s">
         <v>2081</v>
       </c>
@@ -49103,7 +49102,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="413" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A413" s="125" t="s">
         <v>2087</v>
       </c>
@@ -49190,7 +49189,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="414" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A414" s="125" t="s">
         <v>2080</v>
       </c>
@@ -49277,7 +49276,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="415" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A415" s="125" t="s">
         <v>2088</v>
       </c>
@@ -49374,7 +49373,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="416" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A416" s="125" t="s">
         <v>2096</v>
       </c>
@@ -49469,7 +49468,7 @@
       </c>
       <c r="AO416" s="115"/>
     </row>
-    <row r="417" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A417" s="125" t="s">
         <v>2097</v>
       </c>
@@ -49564,7 +49563,7 @@
       </c>
       <c r="AO417" s="115"/>
     </row>
-    <row r="418" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A418" s="125" t="s">
         <v>2098</v>
       </c>
@@ -49649,7 +49648,7 @@
       <c r="AN418" s="115"/>
       <c r="AO418" s="115"/>
     </row>
-    <row r="419" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A419" s="125" t="s">
         <v>2102</v>
       </c>
@@ -49734,7 +49733,7 @@
       <c r="AN419" s="115"/>
       <c r="AO419" s="115"/>
     </row>
-    <row r="420" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A420" s="125" t="s">
         <v>2103</v>
       </c>
@@ -49819,7 +49818,7 @@
       <c r="AN420" s="115"/>
       <c r="AO420" s="115"/>
     </row>
-    <row r="421" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A421" s="131" t="s">
         <v>2108</v>
       </c>
@@ -49902,7 +49901,7 @@
       <c r="AN421" s="136"/>
       <c r="AO421" s="131"/>
     </row>
-    <row r="422" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A422" s="131" t="s">
         <v>2109</v>
       </c>
@@ -49985,7 +49984,7 @@
       <c r="AN422" s="136"/>
       <c r="AO422" s="131"/>
     </row>
-    <row r="423" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A423" s="131" t="s">
         <v>2110</v>
       </c>
@@ -50068,7 +50067,7 @@
       <c r="AN423" s="136"/>
       <c r="AO423" s="131"/>
     </row>
-    <row r="424" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A424" s="131" t="s">
         <v>2111</v>
       </c>
@@ -50153,7 +50152,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="425" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A425" s="131" t="s">
         <v>2112</v>
       </c>
@@ -50236,7 +50235,7 @@
       <c r="AN425" s="136"/>
       <c r="AO425" s="131"/>
     </row>
-    <row r="426" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A426" s="131" t="s">
         <v>2113</v>
       </c>
@@ -50319,7 +50318,7 @@
       <c r="AN426" s="136"/>
       <c r="AO426" s="131"/>
     </row>
-    <row r="427" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A427" s="131" t="s">
         <v>2114</v>
       </c>
@@ -50404,7 +50403,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="428" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A428" s="131" t="s">
         <v>2115</v>
       </c>
@@ -50489,7 +50488,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="429" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A429" s="131" t="s">
         <v>2116</v>
       </c>
@@ -50574,7 +50573,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="430" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A430" s="131" t="s">
         <v>2117</v>
       </c>
@@ -50659,7 +50658,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="431" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A431" s="131" t="s">
         <v>2118</v>
       </c>
@@ -50742,7 +50741,7 @@
       <c r="AN431" s="136"/>
       <c r="AO431" s="131"/>
     </row>
-    <row r="432" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A432" s="131" t="s">
         <v>2119</v>
       </c>
@@ -50825,7 +50824,7 @@
       <c r="AN432" s="136"/>
       <c r="AO432" s="131"/>
     </row>
-    <row r="433" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A433" s="131" t="s">
         <v>2120</v>
       </c>
@@ -50908,7 +50907,7 @@
       <c r="AN433" s="136"/>
       <c r="AO433" s="131"/>
     </row>
-    <row r="434" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A434" s="131" t="s">
         <v>2121</v>
       </c>
@@ -50991,7 +50990,7 @@
       <c r="AN434" s="136"/>
       <c r="AO434" s="131"/>
     </row>
-    <row r="435" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A435" s="131" t="s">
         <v>2122</v>
       </c>
@@ -51076,7 +51075,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="436" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A436" s="131" t="s">
         <v>2123</v>
       </c>
@@ -51159,7 +51158,7 @@
       <c r="AN436" s="136"/>
       <c r="AO436" s="131"/>
     </row>
-    <row r="437" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A437" s="131" t="s">
         <v>2124</v>
       </c>
@@ -51244,7 +51243,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="438" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A438" s="131" t="s">
         <v>2125</v>
       </c>
@@ -51329,7 +51328,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="439" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A439" s="131" t="s">
         <v>2126</v>
       </c>
@@ -51410,7 +51409,7 @@
       <c r="AN439" s="136"/>
       <c r="AO439" s="131"/>
     </row>
-    <row r="440" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A440" s="131" t="s">
         <v>2127</v>
       </c>
@@ -51491,7 +51490,7 @@
       <c r="AN440" s="136"/>
       <c r="AO440" s="131"/>
     </row>
-    <row r="441" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A441" s="131" t="s">
         <v>2128</v>
       </c>
@@ -51572,7 +51571,7 @@
       <c r="AN441" s="136"/>
       <c r="AO441" s="131"/>
     </row>
-    <row r="442" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A442" s="131" t="s">
         <v>2129</v>
       </c>
@@ -51653,7 +51652,7 @@
       <c r="AN442" s="136"/>
       <c r="AO442" s="131"/>
     </row>
-    <row r="443" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A443" s="131" t="s">
         <v>2130</v>
       </c>
@@ -51734,7 +51733,7 @@
       <c r="AN443" s="136"/>
       <c r="AO443" s="131"/>
     </row>
-    <row r="444" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A444" s="131" t="s">
         <v>2131</v>
       </c>
@@ -51815,7 +51814,7 @@
       <c r="AN444" s="136"/>
       <c r="AO444" s="131"/>
     </row>
-    <row r="445" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A445" s="131" t="s">
         <v>2132</v>
       </c>
@@ -51896,7 +51895,7 @@
       <c r="AN445" s="136"/>
       <c r="AO445" s="131"/>
     </row>
-    <row r="446" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A446" s="131" t="s">
         <v>2133</v>
       </c>
@@ -51977,7 +51976,7 @@
       <c r="AN446" s="136"/>
       <c r="AO446" s="131"/>
     </row>
-    <row r="447" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A447" s="131" t="s">
         <v>2134</v>
       </c>
@@ -52060,7 +52059,7 @@
       <c r="AN447" s="136"/>
       <c r="AO447" s="131"/>
     </row>
-    <row r="448" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A448" s="131" t="s">
         <v>2135</v>
       </c>
@@ -52143,7 +52142,7 @@
       <c r="AN448" s="136"/>
       <c r="AO448" s="131"/>
     </row>
-    <row r="449" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A449" s="131" t="s">
         <v>2136</v>
       </c>
@@ -52224,7 +52223,7 @@
       <c r="AN449" s="136"/>
       <c r="AO449" s="131"/>
     </row>
-    <row r="450" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A450" s="131" t="s">
         <v>2137</v>
       </c>
@@ -52305,7 +52304,7 @@
       <c r="AN450" s="136"/>
       <c r="AO450" s="131"/>
     </row>
-    <row r="451" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A451" s="131" t="s">
         <v>2138</v>
       </c>
@@ -52386,7 +52385,7 @@
       <c r="AN451" s="136"/>
       <c r="AO451" s="131"/>
     </row>
-    <row r="452" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A452" s="131" t="s">
         <v>2139</v>
       </c>
@@ -52467,7 +52466,7 @@
       <c r="AN452" s="136"/>
       <c r="AO452" s="131"/>
     </row>
-    <row r="453" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A453" s="131" t="s">
         <v>2140</v>
       </c>
@@ -52548,7 +52547,7 @@
       <c r="AN453" s="136"/>
       <c r="AO453" s="131"/>
     </row>
-    <row r="454" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A454" s="131" t="s">
         <v>2141</v>
       </c>
@@ -52629,7 +52628,7 @@
       <c r="AN454" s="136"/>
       <c r="AO454" s="131"/>
     </row>
-    <row r="455" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A455" s="131" t="s">
         <v>2142</v>
       </c>
@@ -52710,7 +52709,7 @@
       <c r="AN455" s="136"/>
       <c r="AO455" s="131"/>
     </row>
-    <row r="456" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A456" s="131" t="s">
         <v>2143</v>
       </c>
@@ -52791,7 +52790,7 @@
       <c r="AN456" s="136"/>
       <c r="AO456" s="131"/>
     </row>
-    <row r="457" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A457" s="131" t="s">
         <v>2144</v>
       </c>
@@ -52872,7 +52871,7 @@
       <c r="AN457" s="136"/>
       <c r="AO457" s="131"/>
     </row>
-    <row r="458" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A458" s="131" t="s">
         <v>2145</v>
       </c>
@@ -52953,7 +52952,7 @@
       <c r="AN458" s="136"/>
       <c r="AO458" s="131"/>
     </row>
-    <row r="459" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A459" s="131" t="s">
         <v>2146</v>
       </c>
@@ -53034,7 +53033,7 @@
       <c r="AN459" s="136"/>
       <c r="AO459" s="131"/>
     </row>
-    <row r="460" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A460" s="131" t="s">
         <v>2147</v>
       </c>
@@ -53115,7 +53114,7 @@
       <c r="AN460" s="136"/>
       <c r="AO460" s="131"/>
     </row>
-    <row r="461" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A461" s="131" t="s">
         <v>2148</v>
       </c>
@@ -53196,7 +53195,7 @@
       <c r="AN461" s="136"/>
       <c r="AO461" s="131"/>
     </row>
-    <row r="462" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A462" s="131" t="s">
         <v>2149</v>
       </c>
@@ -53277,7 +53276,7 @@
       <c r="AN462" s="136"/>
       <c r="AO462" s="131"/>
     </row>
-    <row r="463" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A463" s="131" t="s">
         <v>2150</v>
       </c>
@@ -53358,7 +53357,7 @@
       <c r="AN463" s="136"/>
       <c r="AO463" s="131"/>
     </row>
-    <row r="464" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A464" s="131" t="s">
         <v>2151</v>
       </c>
@@ -53439,7 +53438,7 @@
       <c r="AN464" s="136"/>
       <c r="AO464" s="131"/>
     </row>
-    <row r="465" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A465" s="131" t="s">
         <v>2152</v>
       </c>
@@ -53520,7 +53519,7 @@
       <c r="AN465" s="136"/>
       <c r="AO465" s="131"/>
     </row>
-    <row r="466" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A466" s="131" t="s">
         <v>2153</v>
       </c>
@@ -53601,7 +53600,7 @@
       <c r="AN466" s="136"/>
       <c r="AO466" s="131"/>
     </row>
-    <row r="467" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A467" s="131" t="s">
         <v>2154</v>
       </c>
@@ -53682,7 +53681,7 @@
       <c r="AN467" s="136"/>
       <c r="AO467" s="131"/>
     </row>
-    <row r="468" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A468" s="131" t="s">
         <v>2155</v>
       </c>
@@ -53763,7 +53762,7 @@
       <c r="AN468" s="136"/>
       <c r="AO468" s="131"/>
     </row>
-    <row r="469" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A469" s="131" t="s">
         <v>2156</v>
       </c>
@@ -53844,7 +53843,7 @@
       <c r="AN469" s="136"/>
       <c r="AO469" s="131"/>
     </row>
-    <row r="470" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A470" s="131" t="s">
         <v>2157</v>
       </c>
@@ -53925,7 +53924,7 @@
       <c r="AN470" s="136"/>
       <c r="AO470" s="131"/>
     </row>
-    <row r="471" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A471" s="131" t="s">
         <v>2158</v>
       </c>
@@ -54006,7 +54005,7 @@
       <c r="AN471" s="136"/>
       <c r="AO471" s="131"/>
     </row>
-    <row r="472" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A472" s="131" t="s">
         <v>2159</v>
       </c>
@@ -54087,7 +54086,7 @@
       <c r="AN472" s="136"/>
       <c r="AO472" s="131"/>
     </row>
-    <row r="473" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A473" s="131" t="s">
         <v>2160</v>
       </c>
@@ -54168,7 +54167,7 @@
       <c r="AN473" s="136"/>
       <c r="AO473" s="131"/>
     </row>
-    <row r="474" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A474" s="131" t="s">
         <v>2161</v>
       </c>
@@ -54249,7 +54248,7 @@
       <c r="AN474" s="136"/>
       <c r="AO474" s="131"/>
     </row>
-    <row r="475" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A475" s="131" t="s">
         <v>2162</v>
       </c>
@@ -54330,7 +54329,7 @@
       <c r="AN475" s="136"/>
       <c r="AO475" s="131"/>
     </row>
-    <row r="476" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A476" s="131" t="s">
         <v>2163</v>
       </c>
@@ -54411,7 +54410,7 @@
       <c r="AN476" s="136"/>
       <c r="AO476" s="131"/>
     </row>
-    <row r="477" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A477" s="131" t="s">
         <v>2164</v>
       </c>
@@ -54492,7 +54491,7 @@
       <c r="AN477" s="136"/>
       <c r="AO477" s="131"/>
     </row>
-    <row r="478" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A478" s="131" t="s">
         <v>2165</v>
       </c>
@@ -54573,7 +54572,7 @@
       <c r="AN478" s="136"/>
       <c r="AO478" s="131"/>
     </row>
-    <row r="479" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A479" s="131" t="s">
         <v>2166</v>
       </c>
@@ -54654,7 +54653,7 @@
       <c r="AN479" s="136"/>
       <c r="AO479" s="131"/>
     </row>
-    <row r="480" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A480" s="131" t="s">
         <v>2167</v>
       </c>
@@ -54735,7 +54734,7 @@
       <c r="AN480" s="136"/>
       <c r="AO480" s="131"/>
     </row>
-    <row r="481" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A481" s="131" t="s">
         <v>2168</v>
       </c>
@@ -54816,7 +54815,7 @@
       <c r="AN481" s="136"/>
       <c r="AO481" s="131"/>
     </row>
-    <row r="482" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A482" s="131" t="s">
         <v>2169</v>
       </c>
@@ -54897,7 +54896,7 @@
       <c r="AN482" s="136"/>
       <c r="AO482" s="131"/>
     </row>
-    <row r="483" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A483" s="131" t="s">
         <v>2170</v>
       </c>
@@ -54978,7 +54977,7 @@
       <c r="AN483" s="136"/>
       <c r="AO483" s="131"/>
     </row>
-    <row r="484" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A484" s="131" t="s">
         <v>2171</v>
       </c>
@@ -55059,7 +55058,7 @@
       <c r="AN484" s="136"/>
       <c r="AO484" s="131"/>
     </row>
-    <row r="485" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A485" s="131" t="s">
         <v>2172</v>
       </c>
@@ -55140,7 +55139,7 @@
       <c r="AN485" s="136"/>
       <c r="AO485" s="131"/>
     </row>
-    <row r="486" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A486" s="131" t="s">
         <v>2173</v>
       </c>
@@ -55221,7 +55220,7 @@
       <c r="AN486" s="136"/>
       <c r="AO486" s="131"/>
     </row>
-    <row r="487" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A487" s="131" t="s">
         <v>2174</v>
       </c>
@@ -55302,7 +55301,7 @@
       <c r="AN487" s="136"/>
       <c r="AO487" s="131"/>
     </row>
-    <row r="488" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A488" s="131" t="s">
         <v>2175</v>
       </c>
@@ -55383,7 +55382,7 @@
       <c r="AN488" s="136"/>
       <c r="AO488" s="131"/>
     </row>
-    <row r="489" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A489" s="131" t="s">
         <v>2176</v>
       </c>
@@ -55464,7 +55463,7 @@
       <c r="AN489" s="136"/>
       <c r="AO489" s="131"/>
     </row>
-    <row r="490" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A490" s="131" t="s">
         <v>2177</v>
       </c>
@@ -55545,7 +55544,7 @@
       <c r="AN490" s="136"/>
       <c r="AO490" s="131"/>
     </row>
-    <row r="491" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A491" s="131" t="s">
         <v>2178</v>
       </c>
@@ -55626,7 +55625,7 @@
       <c r="AN491" s="136"/>
       <c r="AO491" s="131"/>
     </row>
-    <row r="492" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A492" s="131" t="s">
         <v>2179</v>
       </c>
@@ -55707,7 +55706,7 @@
       <c r="AN492" s="136"/>
       <c r="AO492" s="131"/>
     </row>
-    <row r="493" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A493" s="131" t="s">
         <v>2180</v>
       </c>
@@ -55788,7 +55787,7 @@
       <c r="AN493" s="136"/>
       <c r="AO493" s="131"/>
     </row>
-    <row r="494" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A494" s="131" t="s">
         <v>2181</v>
       </c>
@@ -55869,7 +55868,7 @@
       <c r="AN494" s="136"/>
       <c r="AO494" s="131"/>
     </row>
-    <row r="495" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A495" s="131" t="s">
         <v>2182</v>
       </c>
@@ -55950,7 +55949,7 @@
       <c r="AN495" s="136"/>
       <c r="AO495" s="131"/>
     </row>
-    <row r="496" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A496" s="131" t="s">
         <v>2183</v>
       </c>
@@ -56031,7 +56030,7 @@
       <c r="AN496" s="136"/>
       <c r="AO496" s="131"/>
     </row>
-    <row r="497" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A497" s="131" t="s">
         <v>2184</v>
       </c>
@@ -56112,7 +56111,7 @@
       <c r="AN497" s="136"/>
       <c r="AO497" s="131"/>
     </row>
-    <row r="498" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A498" s="131" t="s">
         <v>2185</v>
       </c>
@@ -56193,7 +56192,7 @@
       <c r="AN498" s="136"/>
       <c r="AO498" s="131"/>
     </row>
-    <row r="499" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A499" s="131" t="s">
         <v>2186</v>
       </c>
@@ -56276,7 +56275,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="500" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A500" s="131" t="s">
         <v>2187</v>
       </c>
@@ -56357,7 +56356,7 @@
       <c r="AN500" s="136"/>
       <c r="AO500" s="131"/>
     </row>
-    <row r="501" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A501" s="131" t="s">
         <v>2188</v>
       </c>
@@ -56440,7 +56439,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="502" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A502" s="131" t="s">
         <v>2189</v>
       </c>
@@ -56521,7 +56520,7 @@
       <c r="AN502" s="136"/>
       <c r="AO502" s="131"/>
     </row>
-    <row r="503" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A503" s="131" t="s">
         <v>2190</v>
       </c>
@@ -56604,7 +56603,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="504" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A504" s="131" t="s">
         <v>2191</v>
       </c>
@@ -56687,7 +56686,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="505" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A505" s="131" t="s">
         <v>2192</v>
       </c>
@@ -56768,7 +56767,7 @@
       <c r="AN505" s="136"/>
       <c r="AO505" s="131"/>
     </row>
-    <row r="506" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A506" s="131" t="s">
         <v>2193</v>
       </c>
@@ -56849,7 +56848,7 @@
       <c r="AN506" s="136"/>
       <c r="AO506" s="131"/>
     </row>
-    <row r="507" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A507" s="131" t="s">
         <v>2194</v>
       </c>
@@ -56930,7 +56929,7 @@
       <c r="AN507" s="136"/>
       <c r="AO507" s="131"/>
     </row>
-    <row r="508" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A508" s="131" t="s">
         <v>2195</v>
       </c>
@@ -57011,7 +57010,7 @@
       <c r="AN508" s="136"/>
       <c r="AO508" s="131"/>
     </row>
-    <row r="509" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A509" s="131" t="s">
         <v>2196</v>
       </c>
@@ -57094,7 +57093,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="510" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A510" s="131" t="s">
         <v>2197</v>
       </c>
@@ -57175,7 +57174,7 @@
       <c r="AN510" s="136"/>
       <c r="AO510" s="131"/>
     </row>
-    <row r="511" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A511" s="131" t="s">
         <v>2198</v>
       </c>
@@ -57256,7 +57255,7 @@
       <c r="AN511" s="136"/>
       <c r="AO511" s="131"/>
     </row>
-    <row r="512" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A512" s="131" t="s">
         <v>2199</v>
       </c>
@@ -57337,7 +57336,7 @@
       <c r="AN512" s="136"/>
       <c r="AO512" s="131"/>
     </row>
-    <row r="513" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A513" s="131" t="s">
         <v>2200</v>
       </c>
@@ -57402,7 +57401,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="514" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A514" s="131" t="s">
         <v>2201</v>
       </c>
@@ -57483,7 +57482,7 @@
       <c r="AN514" s="136"/>
       <c r="AO514" s="131"/>
     </row>
-    <row r="515" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A515" s="131" t="s">
         <v>2202</v>
       </c>
@@ -57548,7 +57547,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="516" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A516" s="131" t="s">
         <v>2203</v>
       </c>
@@ -57629,7 +57628,7 @@
       <c r="AN516" s="136"/>
       <c r="AO516" s="131"/>
     </row>
-    <row r="517" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A517" s="131" t="s">
         <v>2204</v>
       </c>
@@ -57710,7 +57709,7 @@
       <c r="AN517" s="136"/>
       <c r="AO517" s="131"/>
     </row>
-    <row r="518" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A518" s="131" t="s">
         <v>2205</v>
       </c>
@@ -57791,7 +57790,7 @@
       <c r="AN518" s="136"/>
       <c r="AO518" s="131"/>
     </row>
-    <row r="519" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A519" s="131" t="s">
         <v>2206</v>
       </c>
@@ -57872,7 +57871,7 @@
       <c r="AN519" s="136"/>
       <c r="AO519" s="131"/>
     </row>
-    <row r="520" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A520" s="131" t="s">
         <v>2207</v>
       </c>
@@ -57957,7 +57956,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="521" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A521" s="131" t="s">
         <v>2208</v>
       </c>
@@ -58042,7 +58041,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="522" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A522" s="131" t="s">
         <v>2209</v>
       </c>
@@ -58127,7 +58126,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="523" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A523" s="131" t="s">
         <v>2210</v>
       </c>
@@ -58212,7 +58211,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="524" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A524" s="131" t="s">
         <v>2211</v>
       </c>
@@ -58295,7 +58294,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="525" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A525" s="131" t="s">
         <v>2212</v>
       </c>
@@ -58378,7 +58377,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="526" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A526" s="131" t="s">
         <v>2213</v>
       </c>
@@ -58459,7 +58458,7 @@
       <c r="AN526" s="136"/>
       <c r="AO526" s="131"/>
     </row>
-    <row r="527" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A527" s="131" t="s">
         <v>2214</v>
       </c>
@@ -58540,7 +58539,7 @@
       <c r="AN527" s="136"/>
       <c r="AO527" s="131"/>
     </row>
-    <row r="528" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A528" s="131" t="s">
         <v>2215</v>
       </c>
@@ -58623,7 +58622,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="529" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A529" s="131" t="s">
         <v>2216</v>
       </c>
@@ -58706,7 +58705,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="530" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A530" s="131" t="s">
         <v>2217</v>
       </c>
@@ -58787,7 +58786,7 @@
       <c r="AN530" s="136"/>
       <c r="AO530" s="131"/>
     </row>
-    <row r="531" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A531" s="131" t="s">
         <v>2218</v>
       </c>
@@ -58868,7 +58867,7 @@
       <c r="AN531" s="136"/>
       <c r="AO531" s="131"/>
     </row>
-    <row r="532" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A532" s="131" t="s">
         <v>2219</v>
       </c>
@@ -58951,7 +58950,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="533" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A533" s="131" t="s">
         <v>2220</v>
       </c>
@@ -59034,7 +59033,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="534" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A534" s="131" t="s">
         <v>2221</v>
       </c>
@@ -59117,7 +59116,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="535" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A535" s="131" t="s">
         <v>2222</v>
       </c>
@@ -59200,16 +59199,16 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="536" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D536" s="130"/>
     </row>
-    <row r="537" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D537" s="130"/>
     </row>
-    <row r="538" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D538" s="130"/>
     </row>
-    <row r="1428" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="1428" spans="24:24" x14ac:dyDescent="0.25">
       <c r="X1428" s="103"/>
     </row>
   </sheetData>
@@ -59218,16 +59217,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCellId="1" sqref="P235:Q264 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
